--- a/etc/variables.xlsx
+++ b/etc/variables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhhasan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrafaie/git/research/CTRNN/mems_ctrnn/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1FFDE673-C54B-E34E-B80D-D0E619B167EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16305" windowHeight="7455"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>Variable</t>
   </si>
@@ -176,18 +177,9 @@
     <t>2 decimal places</t>
   </si>
   <si>
-    <t>α</t>
-  </si>
-  <si>
     <t>input gain</t>
   </si>
   <si>
-    <t>γ</t>
-  </si>
-  <si>
-    <t>φ</t>
-  </si>
-  <si>
     <t>output gain</t>
   </si>
   <si>
@@ -201,13 +193,25 @@
   </si>
   <si>
     <t>only neurons 13,14</t>
+  </si>
+  <si>
+    <t>inp_alpha</t>
+  </si>
+  <si>
+    <t>inp_beta</t>
+  </si>
+  <si>
+    <t>out_alpha</t>
+  </si>
+  <si>
+    <t>out_beta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -626,24 +630,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="32">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -670,7 +674,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -690,7 +694,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -710,7 +714,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -730,7 +734,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10">
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -750,7 +754,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
@@ -770,7 +774,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -788,7 +792,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -806,7 +810,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10">
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
@@ -824,7 +828,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10">
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
@@ -844,7 +848,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10">
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
@@ -862,7 +866,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10">
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
@@ -884,10 +888,10 @@
         <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
@@ -903,7 +907,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10">
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
@@ -925,7 +929,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10">
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
@@ -949,7 +953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
@@ -971,7 +975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
@@ -987,7 +991,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -1003,12 +1007,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="D20" s="1">
         <v>7</v>
@@ -1027,42 +1031,27 @@
         <v>49</v>
       </c>
       <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="6">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="6">
-        <v>100</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>53</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1">
         <v>2</v>
@@ -1072,27 +1061,54 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="6">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="H22" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6">
+        <v>-50</v>
+      </c>
+      <c r="H23" s="6">
+        <v>50</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="3"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etc/variables.xlsx
+++ b/etc/variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrafaie/git/research/CTRNN/mems_ctrnn/etc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1FFDE673-C54B-E34E-B80D-D0E619B167EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C944C93D-C54B-A94D-B09B-EE99E264CD9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -633,11 +633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.1640625" customWidth="1"/>
@@ -647,7 +647,7 @@
     <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="32">
+    <row r="2" spans="2:10" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -674,7 +674,7 @@
       </c>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -694,7 +694,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -714,7 +714,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
@@ -754,7 +754,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>29</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>31</v>
       </c>
@@ -848,7 +848,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
@@ -866,7 +866,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>35</v>
       </c>
@@ -891,7 +891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
@@ -907,7 +907,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>39</v>
       </c>
@@ -929,7 +929,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
@@ -953,7 +953,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>41</v>
       </c>
@@ -975,7 +975,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>43</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>56</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" s="10" t="s">
         <v>57</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="10" t="s">
         <v>58</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" s="10" t="s">
         <v>59</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
